--- a/paper_templates/Design_Template.xlsx
+++ b/paper_templates/Design_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B89743-66EA-4DB7-A29B-50EB61AA5B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD0A4D-6BF4-4EAB-8099-AD5CBA8C4578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="15720" tabRatio="873" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="15720" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCM" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>Client</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -243,12 +243,6 @@
     <t>Application 신규 권한 승인</t>
   </si>
   <si>
-    <t>Application 권한 회수</t>
-  </si>
-  <si>
-    <t>Application 퇴사자 계정 삭제</t>
-  </si>
-  <si>
     <t>Application 관리자 권한 제한</t>
   </si>
   <si>
@@ -361,109 +355,227 @@
   <si>
     <t>자동</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application 신규 권한 승인_Test</t>
-  </si>
-  <si>
-    <t>Application 권한 회수_Test</t>
-  </si>
-  <si>
-    <t>Application 퇴사자 계정 삭제_Test</t>
-  </si>
-  <si>
-    <t>Application 관리자 권한 제한_Test</t>
-  </si>
-  <si>
-    <t>Application 권한 Monitoring_Test</t>
-  </si>
-  <si>
-    <t>Application 패스워드_Test</t>
-  </si>
-  <si>
-    <t>Data 직접변경 승인_Test</t>
-  </si>
-  <si>
-    <t>Data 직접변경 권한 제한_Test</t>
-  </si>
-  <si>
-    <t>DB 접근권한 승인_Test</t>
-  </si>
-  <si>
-    <t>DB 패스워드_Test</t>
-  </si>
-  <si>
-    <t>DB 관리자 권한 제한_Test</t>
-  </si>
-  <si>
-    <t>OS 접근권한 승인_Test</t>
-  </si>
-  <si>
-    <t>OS 패스워드_Test</t>
-  </si>
-  <si>
-    <t>OS 관리자 권한 제한_Test</t>
-  </si>
-  <si>
-    <t>프로그램 변경 승인_Test</t>
-  </si>
-  <si>
-    <t>프로그램 변경 사용자 테스트_Test</t>
-  </si>
-  <si>
-    <t>프로그램 이관 승인_Test</t>
-  </si>
-  <si>
-    <t>개발/운영 환경 분리_Test</t>
-  </si>
-  <si>
-    <t>이관담당자 권한 제한_Test</t>
-  </si>
-  <si>
-    <t>인프라 설정변경_DB_Test</t>
-  </si>
-  <si>
-    <t>인프라 설정변경_OS_Test</t>
-  </si>
-  <si>
-    <t>배치잡 스케줄 등록 승인_Test</t>
-  </si>
-  <si>
-    <t>배치잡 스케줄 등록 권한 제한_Test</t>
-  </si>
-  <si>
-    <t>배치잡 Monitoring_Test</t>
-  </si>
-  <si>
-    <t>장애처리_Test</t>
-  </si>
-  <si>
-    <t>백업관리_Test</t>
-  </si>
-  <si>
-    <t>데이터 센터 접근제한_Test</t>
-  </si>
-  <si>
-    <t>타당성 검토 및 승인_Test</t>
-  </si>
-  <si>
-    <t>요구사항 정의서 작성 및 검토_Test</t>
-  </si>
-  <si>
-    <t>단위 테스트 및 통합 테스트 진행_Test</t>
-  </si>
-  <si>
-    <t>데이터 이관 계획서 작성 및 검토_Test</t>
-  </si>
-  <si>
-    <t>사용자 교육_Test</t>
-  </si>
-  <si>
-    <t>검수보고서 승인_Test</t>
   </si>
   <si>
     <t>검토 결과</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템그룹에서 작성하는 월간운영 현황 보고 문서에 백업 및 소산 내역의 작성 여부와 승인 여부를 검토한다
+ 1. 모집단에서 샘플을 추출한다
+ 2. 추출된 샘플의 백업 및 소산 결과가 정책서에 명시된 내용과 일치하는지 확인한다
+ 3. 월간운영 현황 보고의 시스템 그룹장 승인 여부를 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애대응/재해복구 모의훈련은 평가 대상 기간 중 수행된 모의훈련 계획서 및 결과서 내용을 검토한다
+ 1. 장애대응/재해복구 모의훈련 결과서가 적절한 승인권자의 승인을 득하였는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 설정 내역을 검토하여 정책서와 상이한 부분이 존재하는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 센터 출입 통제 테스트는 아래와 같다
+ 1. 출입 시스템에 등록된 출입 인가자 List의 적절성(서버담당자 직무를 보유한 인원)을 확인한다
+ 2. 인가에 대한 승인 이력을 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 권한 부여 시 권한 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다.
+  2. 추출된 샘플의 권한 요청서 작성 여부와 부서장 승인 여부를 확인한다.
+  3. 권한 요청 및 승인 완료 후 권한 부여가 수행되었는지 확인한다
+    - 권한 요청서 작성/승인 일자 &lt; 권한부여 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 접근권한 요청서/승인 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다.
+  2. 신규 부여된 권한(계정)에 대해 요청서 작성 여부와 승인 여부를 확인한다
+  3. 요청서 작성/승인 완료 후 계정 생성이 수행되었는지 확인한다
+    - 요청/승인 일자 &lt; 접근권한 부여 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS 접근권한 요청서/승인 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다.
+  2. 신규 부여된 권한(계정)에 대해 요청서 작성 여부와 승인 여부를 확인한다
+  3. 요청서 작성/승인 완료 후 계정 생성이 수행되었는지 확인한다
+    - 요청/승인 일자 &lt; 접근권한 부여 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB Superuser 계정에 대한 접근 제어 설정사항을 검토한다
+  1. 접근제어 Tool에 Sys/System/SA 등 Superuser 계정으로 접속 가능한 인원을 확인한다.
+  2. 해당 인원의 직무상 적합성 여부를 확인한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS Superuser 계정에 대한 접근 제어 설정사항을 검토한다
+  1. 접근제어 Tool에 root/administrator 등 Superuser 계정으로 접속 가능한 인원을 확인한다.
+  2. 해당 인원의 직무상 적합성 여부를 확인한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 변경 시 변경 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다.
+  2. 추출된 샘플의 변경요청서 작성 여부와 부서장 승인 여부를 확인한다.
+  3. 변경요청서 작성/승인 완료 후 이관이 수행되었는지 확인한다
+    - 변경 요청/승인 일자 &lt; 이관일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 변경시 요청자에 의한 사용자 테스트 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 사용자 테스트 결과서 작성 여부를 확인한다
+  3. 사용자 테스트 완료 후 이관이 수행되었는지 확인한다
+    - 사용자 테스트 일자 &lt; 이관 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 변경시 이관 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 이관요청서 작성 여부 승인 여부를 확인한다
+  3. 이관 승인 완료 후 이관이 수행되었는지 확인한다
+    - 이관 요청 작성/승인 일자&lt;이관일자</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>이관권한을 보유한 인원이 직무분리상 해당 권한을 보유하고 있어야 하는 인원인지 검토한다
+  1. 이관권한을 보유한 인원이 직무상 이관담당자인지 확인한다
+  2. 이관담당자가 지정되어 있지 않은 경우 각 변경건에 대해 개발담당자와 이관담당자를 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발과 운영 환경이 논리적으로 분리되어 있으며 운영 환경에서는 개발 불가 설정을 검토한다
+  1. 시스템이 개발, 운영으로 분리되어 있음을 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 변경 시 요청서 작성 및 부서장의 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 데이터 변경 요청서 작성 여부와 부서장 승인 여부를 확인한다
+  3. 변경 요청서 작성 및 승인 완료 후 데이터 변경이 수행되었는지 확인한다
+    - 변경요청서 작성/승인 일자 &lt; 데이터 변경 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 변경사항(Patch History)에 대해 계획서와 승인 이력의 존재 여부를 검토한다
+  1. 모집단(DB Patch 이력)에서 샘플을 추출한다
+  2. 샘플에 대해 정기PM 계획서 등 변경에 대한 승인 이력을 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS 변경사항(Patch History)에 대해 계획서와 승인 이력의 존재 여부를 검토한다
+  1. 모집단(OS Patch 이력)에서 샘플을 추출한다
+  2. 샘플에 대해 정기PM 계획서 등 변경에 대한 승인 이력을 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구축된 시스템의 타당검 검토 및 부서장 승인 이력의 존재 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 타당성 검토 문서가 작성되었는지 확인한다
+  3. 타당성 검토 문서가 부서장의 승인을 득하였는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구축된 시스템의 타당검 검토 및 부서장 승인 이력의 존재 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 요구사항 정의서가 작성되었는지 확인한다
+  3. 요구사항 정의서 문서가 부서장의 승인을 득하였는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구축 및 Open 시 테스트 시나리오/결과서 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 규모와 기능에 따라 테스트(단위테스트, CRP테스트, EP테스트, 통합테스트, 사용자인수테스트) 시나리오와 결과서의 작성 여부를 확인한다
+  3. 테스트 완료 후 시스템 Open 되었음을 확인한다
+    - 테스트 일자 &lt; 시스템 Open 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구축 및 Open 시 데이터 이관(DC&amp;M) 계획서 및 결과서의 작성과 승인권자의 승인 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 데이터 이관 계획서 및 결과서의 작성과 승인권자의 승인 여부를 확인한다
+  3. 데이터 이관 결과서 승인 완료 후 시스템 Open 되었음을 확인한다
+    - 데이터 이관 승인 일자 &lt; 시스템 Open 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구축 및 사용자 교육 계획이 수립되고 부서장의 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 사용자 교육 계획서를 확인한다
+  3. 교육 계획서의 부서장의 승인 여부를 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 구축 및 Open 시 검수보고서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 검수보고서 작성/승인 완료 여부를 확인한다
+  3. 검수보고서 작성/승인 완료 후 시스템 Open 되었음을 확인한다
+    - 검수보고서 작성/승인 일자 &lt; 시스템 Open 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch 등록(변경)시 등록(변경) 요청서 작성 및 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 등록(변경) 요청서의 작성 여부 및 승인 여부를 확인한다
+  3. 등록(변경) 요청서 작성 및 승인 완료 후 Batch 등록(변경)이 수행되었음을 확인한다
+    - 요청/승인 일자 &lt; 등록 일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch 등록권한 보유자의 직무상 적절성과 수행중인 Batch Job의 등록자를 검토한다
+  1. Batch 등록 권한 보유자를 조회하여 직무상 적절한 인원(IT담당자 등)이 보유하고 있는지 확인한다
+  2. Batch 등록 권한이 현업에게 있는 경우 실제 등록된 Batch의 등록자를 대상으로 적정성 여부를 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch 오류건에 대해 원인 파악 및 조치 여부를 검토한다
+  1. 모집단(당기 Batch 오류 List)에서 샘플을 추출한다
+  2. 샘플에 대해 원인 파악 및 조치 여부가 문서화되어 있는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 변경 권한자의 적정성 여부를 검토한다
+  1. 데이터 변경 권한 보유자를 조회한다
+  2. 권한 보유자의 직무 등을 검토하여 적정한 인원이 권한을 보유하고 있는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application 관리자 권한 보유자자의 적정성 여부를 검토한다
+  1. 관리자 권한 보유자를 조회한다
+  2. 권한 보유자의 직무 등을 검토하여 적정한 인원이 권한을 보유하고 있는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서이동자의 권한이 적시에 회수되었는지 검토한다
+  1. 모집단(당기 부서이동자)에서 샘플을 추출한다
+  2. 샘플에 선정된 인원이 부서 이동 전 보유하고 있는 권한이 모두 회수되었는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application 퇴사자 접근 권한 회수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application 부서이동자 권한 회수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사자의 접근 권한이 적시에 회수되었는지 검토한다
+  1. 모집단(당기 퇴사자)에서 샘플을 추출한다
+  2. 샘플에 선정된 인원의 접근권한이 회수되었는지 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당기 권한 Monitoring이 수행되고 승인권자의 승인이 완료되었는지 검토한다
+  1. 통제 주기에 따라 샘플을 선정한다
+  2. 샘플의 Monitoring 문서가 전체 권한을 대상으로 검토되었는지 확인한다
+  3. Monitoring 문서의 승인 여부를 확인한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,7 +593,7 @@
     <numFmt numFmtId="183" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="184" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="돋움"/>
@@ -654,6 +766,27 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -745,7 +878,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -804,8 +937,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -920,8 +1056,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="41">
     <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="??&amp;O?&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -940,6 +1079,7 @@
     <cellStyle name="Input [yellow]" xfId="27" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Model" xfId="28" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal - Style1" xfId="29" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2" xfId="40" xr:uid="{D005DE08-9530-4634-8B33-3C51988D4558}"/>
     <cellStyle name="Normal_ SG&amp;A Bridge " xfId="30" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Output Amounts" xfId="31" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Output Column Headings" xfId="32" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -1446,10 +1586,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B9" sqref="B9:C10"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1479,7 +1619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
@@ -1487,557 +1627,557 @@
         <v>47</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E2" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="67.5">
       <c r="A6" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="13.5">
       <c r="A7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E8" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A10" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E10" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="13.5">
       <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A12" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A13" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E13" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="13.5">
       <c r="A14" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A15" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A16" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E16" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E17" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A18" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="E18" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="40.5">
       <c r="A19" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A20" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A21" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A22" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E22" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A23" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A24" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" ht="54">
       <c r="A25" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1" ht="27">
       <c r="A26" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E26" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="3" customFormat="1" ht="67.5">
       <c r="A27" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" ht="40.5">
       <c r="A28" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E28" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="3" customFormat="1" ht="67.5">
       <c r="A29" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E29" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="3" customFormat="1" ht="67.5">
       <c r="A30" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E30" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="94.5">
       <c r="A31" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E31" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="81">
       <c r="A32" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E32" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="67.5">
       <c r="A33" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E33" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="81">
       <c r="A34" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="E34" s="29" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2596,8 +2736,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2682,7 +2822,7 @@
     <row r="12" spans="1:4" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="35" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C12" s="33"/>
     </row>
@@ -2786,24 +2926,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100339A91ABF6B0E74BBAB45B3A7F6E62EE" ma:contentTypeVersion="" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="6e17012235b26a7a0350590f144b58ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bbecb3f91f6338ad1582cc9b6c688ac" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2935,25 +3057,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9F50EA-511A-47A0-93D9-E0B615D1BBD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC26BC8C-8D44-46BE-A39D-C16F3FC5094C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4667855A-3738-433F-9E1F-E8508E1FE58D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2969,4 +3091,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC26BC8C-8D44-46BE-A39D-C16F3FC5094C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9F50EA-511A-47A0-93D9-E0B615D1BBD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/paper_templates/Design_Template.xlsx
+++ b/paper_templates/Design_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pythons\snowball\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AC0A0-948C-41C6-8BE8-25E7F26C915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994734AA-7D2B-4FFE-8A5D-72C0082830D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="873" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <definedName name="NvsValTbl.ACCOUNT">"GL_ACCOUNT_TBL"</definedName>
     <definedName name="ORG">[3]SETUP!$A$3:$A$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">RCM!$A$1:$E$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Template!$A$1:$C$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Template!$A$1:$C$16</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="Print_Area_MI">#REF!</definedName>
     <definedName name="Question_Type">[4]Values!$B$3:$B$10</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
   <si>
     <t>Client</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -576,6 +576,10 @@
   2. 샘플의 Monitoring 문서가 전체 권한을 대상으로 검토되었는지 확인한다
   3. Monitoring 문서의 승인 여부를 확인한다</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2734,10 +2738,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2826,28 +2830,31 @@
       </c>
       <c r="C12" s="33"/>
     </row>
-    <row r="13" spans="1:4" ht="300" customHeight="1">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:4" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="15"/>
       <c r="B13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="33"/>
     </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:4" ht="300" customHeight="1">
+      <c r="A14" s="9"/>
       <c r="B14" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" s="16" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="B16" s="13"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1">
       <c r="B17" s="13"/>
@@ -2913,8 +2920,12 @@
       <c r="B32" s="13"/>
       <c r="D32" s="19"/>
     </row>
-    <row r="33" spans="4:4" ht="15" customHeight="1">
+    <row r="33" spans="2:4" ht="15" customHeight="1">
+      <c r="B33" s="13"/>
       <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" customHeight="1">
+      <c r="D34" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -2926,21 +2937,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3076,19 +3087,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC26BC8C-8D44-46BE-A39D-C16F3FC5094C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9F50EA-511A-47A0-93D9-E0B615D1BBD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9F50EA-511A-47A0-93D9-E0B615D1BBD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC26BC8C-8D44-46BE-A39D-C16F3FC5094C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
